--- a/newwisedata/testssh_ans/mcmc8_D.xlsx
+++ b/newwisedata/testssh_ans/mcmc8_D.xlsx
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>600</v>
+        <v>925</v>
       </c>
       <c r="D8" t="n">
         <v>2938</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>600</v>
+        <v>1116.6</v>
       </c>
       <c r="D18" t="n">
         <v>2877</v>
